--- a/handson-08/src/test/java/com/nablarch/example/app/web/form/ProjectForm.xlsx
+++ b/handson-08/src/test/java/com/nablarch/example/app/web/form/ProjectForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="売上総利益の取得テスト" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="73">
   <si>
     <t>no</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,14 @@
   </si>
   <si>
     <t>LIST_MAP=testdata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -818,7 +826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -981,7 +991,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
@@ -991,7 +1003,9 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1000,14 +1014,18 @@
       <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1019,7 +1037,9 @@
       <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1060,9 @@
       <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
@@ -1049,15 +1071,21 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1070,7 +1098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1233,7 +1263,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1243,7 +1275,9 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1252,14 +1286,18 @@
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1271,11 +1309,15 @@
       <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1290,7 +1332,9 @@
       <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1299,13 +1343,21 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1318,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -1485,7 +1537,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1495,7 +1549,9 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1504,14 +1560,18 @@
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1523,11 +1583,15 @@
       <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1542,7 +1606,9 @@
       <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1551,13 +1617,21 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1570,7 +1644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F11:F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1730,7 +1806,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>61</v>
       </c>
@@ -1740,7 +1818,9 @@
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1749,14 +1829,18 @@
       <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1768,11 +1852,15 @@
       <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1787,18 +1875,32 @@
       <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
